--- a/Data/Commodore 64C/Fine/Data XYZ.xlsx
+++ b/Data/Commodore 64C/Fine/Data XYZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64C\Fine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF57D76-55CD-42E2-8E36-947B4F0902B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5385DA10-CBEF-4E77-BE46-CC887D9F1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,10 +1127,10 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -1143,11 +1143,11 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="7">
         <v>0.6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
       </c>
       <c r="E6" s="7">
         <v>0.9</v>
@@ -1240,6 +1240,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Commodore 64C/Fine/Data XYZ.xlsx
+++ b/Data/Commodore 64C/Fine/Data XYZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64C\Fine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5385DA10-CBEF-4E77-BE46-CC887D9F1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AAE651-5176-4ACB-B2C2-A7FB0FCF70C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>U1</t>
   </si>
@@ -337,12 +337,42 @@
   <si>
     <t># Commodore 64 Model C, board 112122322</t>
   </si>
+  <si>
+    <t>TRIVIA START</t>
+  </si>
+  <si>
+    <t>TRIVIA END</t>
+  </si>
+  <si>
+    <t>TROUBLESHOOTING START</t>
+  </si>
+  <si>
+    <t>TROUBLESHOOTIN END</t>
+  </si>
+  <si>
+    <t>LINKS START</t>
+  </si>
+  <si>
+    <t>Pictorial guides:</t>
+  </si>
+  <si>
+    <t>Lemon64</t>
+  </si>
+  <si>
+    <t>MyOldComputer</t>
+  </si>
+  <si>
+    <t>More stuff</t>
+  </si>
+  <si>
+    <t>LINKS END</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +415,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,10 +499,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -485,8 +524,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1095,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFA56FA-C1BA-4934-92E6-C9DDE282AD61}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
@@ -1246,36 +1287,148 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86F22-EFC1-43D5-B548-DDEDDDBE5E13}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519DFCC-A664-4B71-859C-4D1D578ADE04}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6E09E-B5BF-4B73-B79A-A473EDB66B5F}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{D1C0C0FD-BDC8-483E-8358-5DDA236F900F}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{4EE576A5-8977-4BED-8DB9-A9E5B4B1B958}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Commodore 64C/Fine/Data XYZ.xlsx
+++ b/Data/Commodore 64C/Fine/Data XYZ.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64C\Fine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AAE651-5176-4ACB-B2C2-A7FB0FCF70C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2336D-D8E7-4503-8A4E-0784A73D315D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
     <sheet name="Highlights" sheetId="6" r:id="rId3"/>
-    <sheet name="Trivia" sheetId="2" r:id="rId4"/>
-    <sheet name="Troubleshooting" sheetId="3" r:id="rId5"/>
-    <sheet name="Links" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>U1</t>
   </si>
@@ -337,42 +334,12 @@
   <si>
     <t># Commodore 64 Model C, board 112122322</t>
   </si>
-  <si>
-    <t>TRIVIA START</t>
-  </si>
-  <si>
-    <t>TRIVIA END</t>
-  </si>
-  <si>
-    <t>TROUBLESHOOTING START</t>
-  </si>
-  <si>
-    <t>TROUBLESHOOTIN END</t>
-  </si>
-  <si>
-    <t>LINKS START</t>
-  </si>
-  <si>
-    <t>Pictorial guides:</t>
-  </si>
-  <si>
-    <t>Lemon64</t>
-  </si>
-  <si>
-    <t>MyOldComputer</t>
-  </si>
-  <si>
-    <t>More stuff</t>
-  </si>
-  <si>
-    <t>LINKS END</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,14 +382,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,11 +458,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -524,10 +482,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1136,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFA56FA-C1BA-4934-92E6-C9DDE282AD61}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
@@ -1283,152 +1239,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86F22-EFC1-43D5-B548-DDEDDDBE5E13}">
-  <dimension ref="A2:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519DFCC-A664-4B71-859C-4D1D578ADE04}">
-  <dimension ref="A4:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6E09E-B5BF-4B73-B79A-A473EDB66B5F}">
-  <dimension ref="A3:A11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{D1C0C0FD-BDC8-483E-8358-5DDA236F900F}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{4EE576A5-8977-4BED-8DB9-A9E5B4B1B958}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>